--- a/Side models/YearlyTripProfileGenerator/Generated trips.xlsx
+++ b/Side models/YearlyTripProfileGenerator/Generated trips.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>6_18.5_500km</t>
+  </si>
+  <si>
+    <t>6.5_19.5_340km</t>
+  </si>
+  <si>
+    <t>6.5_18.25_280km</t>
   </si>
 </sst>
 </file>
@@ -468,70 +474,70 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>360.0</v>
+        <v>420.0</v>
       </c>
       <c r="C2" t="n">
-        <v>960.0</v>
+        <v>1140.0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.0</v>
+        <v>330.0</v>
       </c>
       <c r="E2" t="n">
         <v>1800.0</v>
       </c>
       <c r="F2" t="n">
-        <v>2400.0</v>
+        <v>2640.0</v>
       </c>
       <c r="G2" t="n">
-        <v>232.0</v>
+        <v>323.0</v>
       </c>
       <c r="H2" t="n">
         <v>3300.0</v>
       </c>
       <c r="I2" t="n">
-        <v>3840.0</v>
+        <v>4080.0</v>
       </c>
       <c r="J2" t="n">
-        <v>267.0</v>
+        <v>355.0</v>
       </c>
       <c r="K2" t="n">
         <v>4740.0</v>
       </c>
       <c r="L2" t="n">
-        <v>5280.0</v>
+        <v>5460.0</v>
       </c>
       <c r="M2" t="n">
-        <v>244.0</v>
+        <v>335.0</v>
       </c>
       <c r="N2" t="n">
         <v>6120.0</v>
       </c>
       <c r="O2" t="n">
-        <v>6720.0</v>
+        <v>6960.0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.0</v>
+        <v>327.0</v>
       </c>
       <c r="Q2" t="n">
         <v>7620.0</v>
       </c>
       <c r="R2" t="n">
-        <v>8160.0</v>
+        <v>8400.0</v>
       </c>
       <c r="S2" t="n">
-        <v>237.0</v>
+        <v>328.0</v>
       </c>
       <c r="T2" t="n">
-        <v>8940.0</v>
+        <v>9000.0</v>
       </c>
       <c r="U2" t="n">
-        <v>9600.0</v>
+        <v>9840.0</v>
       </c>
       <c r="V2" t="n">
-        <v>261.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1026,75 +1032,75 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>300.0</v>
+        <v>360.0</v>
       </c>
       <c r="C11" t="n">
         <v>1080.0</v>
       </c>
       <c r="D11" t="n">
-        <v>391.0</v>
+        <v>291.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1740.0</v>
+        <v>1800.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2580.0</v>
+        <v>2520.0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.0</v>
+        <v>282.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3240.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I11" t="n">
         <v>3960.0</v>
       </c>
       <c r="J11" t="n">
-        <v>421.0</v>
+        <v>285.0</v>
       </c>
       <c r="K11" t="n">
         <v>4680.0</v>
       </c>
       <c r="L11" t="n">
-        <v>5460.0</v>
+        <v>5400.0</v>
       </c>
       <c r="M11" t="n">
-        <v>395.0</v>
+        <v>265.0</v>
       </c>
       <c r="N11" t="n">
-        <v>6060.0</v>
+        <v>6120.0</v>
       </c>
       <c r="O11" t="n">
         <v>6840.0</v>
       </c>
       <c r="P11" t="n">
-        <v>417.0</v>
+        <v>301.0</v>
       </c>
       <c r="Q11" t="n">
         <v>7560.0</v>
       </c>
       <c r="R11" t="n">
-        <v>8340.0</v>
+        <v>8280.0</v>
       </c>
       <c r="S11" t="n">
-        <v>398.0</v>
+        <v>268.0</v>
       </c>
       <c r="T11" t="n">
-        <v>9060.0</v>
+        <v>9000.0</v>
       </c>
       <c r="U11" t="n">
         <v>9720.0</v>
       </c>
       <c r="V11" t="n">
-        <v>395.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
         <v>360.0</v>
@@ -1103,25 +1109,25 @@
         <v>1080.0</v>
       </c>
       <c r="D12" t="n">
-        <v>517.0</v>
+        <v>230.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1860.0</v>
+        <v>1800.0</v>
       </c>
       <c r="F12" t="n">
         <v>2520.0</v>
       </c>
       <c r="G12" t="n">
-        <v>481.0</v>
+        <v>235.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3180.0</v>
+        <v>3240.0</v>
       </c>
       <c r="I12" t="n">
-        <v>4020.0</v>
+        <v>3960.0</v>
       </c>
       <c r="J12" t="n">
-        <v>469.0</v>
+        <v>241.0</v>
       </c>
       <c r="K12" t="n">
         <v>4680.0</v>
@@ -1130,7 +1136,7 @@
         <v>5400.0</v>
       </c>
       <c r="M12" t="n">
-        <v>466.0</v>
+        <v>276.0</v>
       </c>
       <c r="N12" t="n">
         <v>6120.0</v>
@@ -1139,7 +1145,7 @@
         <v>6840.0</v>
       </c>
       <c r="P12" t="n">
-        <v>472.0</v>
+        <v>250.0</v>
       </c>
       <c r="Q12" t="n">
         <v>7560.0</v>
@@ -1148,7 +1154,7 @@
         <v>8280.0</v>
       </c>
       <c r="S12" t="n">
-        <v>478.0</v>
+        <v>240.0</v>
       </c>
       <c r="T12" t="n">
         <v>9000.0</v>
